--- a/Semester_3/Slotted Pages.xlsx
+++ b/Semester_3/Slotted Pages.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Uni\Semester_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1D1B7C-D0C4-4779-8480-1C626A00FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577D2B4-8ED3-4013-A436-A497991AE902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{274EAEE8-2B61-47FF-9EA0-BC2FC076282B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Header" sheetId="2" r:id="rId1"/>
+    <sheet name="Heap" sheetId="3" r:id="rId2"/>
+    <sheet name="Frontend" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,12 +35,203 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+  <si>
+    <t>Slot Nr.</t>
+  </si>
+  <si>
+    <t>Heap-Referenz</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Speicherzelle</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>Daten anzeigen</t>
+  </si>
+  <si>
+    <t>belegt</t>
+  </si>
+  <si>
+    <t>frei</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>[frei]</t>
+  </si>
+  <si>
+    <t>Datensatz 3</t>
+  </si>
+  <si>
+    <t>Datensatz 4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,13 +572,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1D6C00-D19C-4275-9140-D8E8BF8D0ABE}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Heap!A4</f>
+        <v>A4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Heap!A5</f>
+        <v>A5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6B6AC-5A05-411B-B66D-182D767367E0}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE75D76-1FAF-4572-B67D-31F5FBCF2981}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(Header!C2="frei","Dieser Slot ist frei",Header!B2)</f>
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(Header!C3="frei","Dieser Slot ist frei",Header!B3)</f>
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(Header!C4="frei","Dieser Slot ist frei",Header!B4)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(Header!C5="frei","Dieser Slot ist frei",Header!B5)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(Header!C6="frei","Dieser Slot ist frei",Header!B6)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(Header!C7="frei","Dieser Slot ist frei",Header!B7)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(Header!C8="frei","Dieser Slot ist frei",Header!B8)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(Header!C9="frei","Dieser Slot ist frei",Header!B9)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(Header!C10="frei","Dieser Slot ist frei",Header!B10)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(Header!C11="frei","Dieser Slot ist frei",Header!B11)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(Header!C12="frei","Dieser Slot ist frei",Header!B12)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(Header!C13="frei","Dieser Slot ist frei",Header!B13)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(Header!C14="frei","Dieser Slot ist frei",Header!B14)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(Header!C15="frei","Dieser Slot ist frei",Header!B15)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(Header!C16="frei","Dieser Slot ist frei",Header!B16)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(Header!C17="frei","Dieser Slot ist frei",Header!B17)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(Header!C18="frei","Dieser Slot ist frei",Header!B18)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(Header!C19="frei","Dieser Slot ist frei",Header!B19)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(Header!C20="frei","Dieser Slot ist frei",Header!B20)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(Header!C21="frei","Dieser Slot ist frei",Header!B21)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(Header!C22="frei","Dieser Slot ist frei",Header!B22)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(Header!C23="frei","Dieser Slot ist frei",Header!B23)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(Header!C24="frei","Dieser Slot ist frei",Header!B24)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(Header!C25="frei","Dieser Slot ist frei",Header!B25)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(Header!C26="frei","Dieser Slot ist frei",Header!B26)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(Header!C27="frei","Dieser Slot ist frei",Header!B27)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(Header!C28="frei","Dieser Slot ist frei",Header!B28)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(Header!C29="frei","Dieser Slot ist frei",Header!B29)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(Header!C30="frei","Dieser Slot ist frei",Header!B30)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(Header!C31="frei","Dieser Slot ist frei",Header!B31)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(Header!C32="frei","Dieser Slot ist frei",Header!B32)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(Header!C33="frei","Dieser Slot ist frei",Header!B33)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(Header!C34="frei","Dieser Slot ist frei",Header!B34)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(Header!C35="frei","Dieser Slot ist frei",Header!B35)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(Header!C36="frei","Dieser Slot ist frei",Header!B36)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(Header!C37="frei","Dieser Slot ist frei",Header!B37)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(Header!C38="frei","Dieser Slot ist frei",Header!B38)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(Header!C39="frei","Dieser Slot ist frei",Header!B39)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(Header!C40="frei","Dieser Slot ist frei",Header!B40)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(Header!C41="frei","Dieser Slot ist frei",Header!B41)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(Header!C42="frei","Dieser Slot ist frei",Header!B42)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(Header!C43="frei","Dieser Slot ist frei",Header!B43)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(Header!C44="frei","Dieser Slot ist frei",Header!B44)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(Header!C45="frei","Dieser Slot ist frei",Header!B45)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(Header!C46="frei","Dieser Slot ist frei",Header!B46)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IF(Header!C47="frei","Dieser Slot ist frei",Header!B47)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IF(Header!C48="frei","Dieser Slot ist frei",Header!B48)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IF(Header!C49="frei","Dieser Slot ist frei",Header!B49)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IF(Header!C50="frei","Dieser Slot ist frei",Header!B50)</f>
+        <v>Dieser Slot ist frei</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>